--- a/database/seeds/rkap.xlsx
+++ b/database/seeds/rkap.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Google Drive (bagian.transport@gmail.com)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pengelolaan_aset\database\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E51C91-301F-41F9-93A4-068E9A87D7B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2136" windowWidth="17280" windowHeight="9072" xr2:uid="{329AD061-C068-4EFE-8194-0A1F73941545}"/>
+    <workbookView xWindow="4260" yWindow="2130" windowWidth="17280" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="tb_rkap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>kd_rkap</t>
   </si>
@@ -55,12 +54,36 @@
   </si>
   <si>
     <t>Aktif</t>
+  </si>
+  <si>
+    <t>R20201000001</t>
+  </si>
+  <si>
+    <t>R20201000002</t>
+  </si>
+  <si>
+    <t>R20201000003</t>
+  </si>
+  <si>
+    <t>R20201000004</t>
+  </si>
+  <si>
+    <t>R20201000005</t>
+  </si>
+  <si>
+    <t>R20201000006</t>
+  </si>
+  <si>
+    <t>R20201000007</t>
+  </si>
+  <si>
+    <t>R20201000008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,22 +437,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA1F4F5-D8C1-42DC-9FB0-11CB5E59CCE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,10 +475,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="str">
-        <f ca="1">"R"&amp;TEXT(TODAY(),"yyyymm")&amp;TEXT(ROW(A2)-1,"00000")</f>
-        <v>R20201000001</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -476,10 +498,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="str">
-        <f t="shared" ref="A3:A9" ca="1" si="0">"R"&amp;TEXT(TODAY(),"yyyymm")&amp;TEXT(ROW(A3)-1,"00000")</f>
-        <v>R20201000002</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -500,10 +521,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>R20201000003</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -524,10 +544,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>R20201000004</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -548,10 +567,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>R20201000005</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -572,10 +590,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>R20201000006</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -596,10 +613,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>R20201000007</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -620,10 +636,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>R20201000008</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>

--- a/database/seeds/rkap.xlsx
+++ b/database/seeds/rkap.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pengelolaan_aset\database\seeds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pengelolaan_aset\database\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811B0AAE-5A99-425D-97DD-D4D6BBA83672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2130" windowWidth="17280" windowHeight="9075"/>
+    <workbookView xWindow="-2800" yWindow="460" windowWidth="6950" windowHeight="7470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tb_rkap" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>kd_rkap</t>
   </si>
@@ -78,13 +79,37 @@
   </si>
   <si>
     <t>R20201000008</t>
+  </si>
+  <si>
+    <t>B007030021</t>
+  </si>
+  <si>
+    <t>B007030034</t>
+  </si>
+  <si>
+    <t>B007030025</t>
+  </si>
+  <si>
+    <t>B007030004</t>
+  </si>
+  <si>
+    <t>R20201000009</t>
+  </si>
+  <si>
+    <t>R20201000010</t>
+  </si>
+  <si>
+    <t>R20201000011</t>
+  </si>
+  <si>
+    <t>R20201000012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +121,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,9 +160,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,29 +482,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -475,14 +521,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>630110000</v>
       </c>
       <c r="D2">
@@ -498,14 +544,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>610220000</v>
       </c>
       <c r="D3">
@@ -521,14 +567,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>690110010</v>
       </c>
       <c r="D4">
@@ -544,14 +590,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>630210008</v>
       </c>
       <c r="D5">
@@ -567,14 +613,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>640210002</v>
       </c>
       <c r="D6">
@@ -590,14 +636,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>640220003</v>
       </c>
       <c r="D7">
@@ -613,14 +659,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>640220006</v>
       </c>
       <c r="D8">
@@ -636,14 +682,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>670220001</v>
       </c>
       <c r="D9">
@@ -658,6 +704,126 @@
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="6">
+        <v>630290001</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="6">
+        <v>630290001</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6">
+        <v>630290001</v>
+      </c>
+      <c r="D12">
+        <v>2020</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6">
+        <v>630290001</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="2"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="2"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="2"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/seeds/rkap.xlsx
+++ b/database/seeds/rkap.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>kd_rkap</t>
   </si>
@@ -78,6 +78,33 @@
   </si>
   <si>
     <t>R20201000008</t>
+  </si>
+  <si>
+    <t>Suku Cadang</t>
+  </si>
+  <si>
+    <t>Bahan Pembantu</t>
+  </si>
+  <si>
+    <t>Pemeliharaan - Kendaraan</t>
+  </si>
+  <si>
+    <t>Pajak Kendaraan</t>
+  </si>
+  <si>
+    <t>Retribusi - Kendaraan</t>
+  </si>
+  <si>
+    <t>Sewa - Kendaraan</t>
+  </si>
+  <si>
+    <t>Lainnya - Bahan Bakar Kendaraan</t>
+  </si>
+  <si>
+    <t>Retribusi - Parkir &amp; Tol</t>
+  </si>
+  <si>
+    <t>uraian</t>
   </si>
 </sst>
 </file>
@@ -438,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,10 +476,11 @@
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,19 +491,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -485,20 +516,23 @@
       <c r="C2">
         <v>630110000</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
         <v>2020</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>301000000</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -508,20 +542,23 @@
       <c r="C3">
         <v>610220000</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3">
         <v>2020</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>51329267</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -531,20 +568,23 @@
       <c r="C4">
         <v>690110010</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
         <v>2020</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>4664101320</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -554,20 +594,23 @@
       <c r="C5">
         <v>630210008</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
         <v>2020</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1107774718</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -577,20 +620,23 @@
       <c r="C6">
         <v>640210002</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
         <v>2020</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>274294680</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -600,20 +646,23 @@
       <c r="C7">
         <v>640220003</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
         <v>2020</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19216020</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -623,20 +672,23 @@
       <c r="C8">
         <v>640220006</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
         <v>2020</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>216000000</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -646,16 +698,19 @@
       <c r="C9">
         <v>670220001</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
         <v>2020</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>21780569455</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
